--- a/medicine/Médecine vétérinaire/Métrite/Métrite.xlsx
+++ b/medicine/Médecine vétérinaire/Métrite/Métrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9trite</t>
+          <t>Métrite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine et en médecine vétérinaire, une métrite est une infection aiguë ou chronique de l'utérus  en complication d'un accouchement ou d'un vêlage.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9trite</t>
+          <t>Métrite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Définir l'infection utérine n'est pas chose aisée. Il faut y voir le manque d'harmonisation des méthodes et des critères de diagnostic mais aussi le fait que la présence de sécrétions utérines au cours de la période d'involution utérine ne traduit pas nécessairement la présence d'un processus pathologique.
 Il faut donc distinguer l’infection (processus pathologique) de la contamination (processus pathologique). L’infection implique l’adhérence d’un germe à la muqueuse, la colonisation voire la pénétration de l’épithélium par ce germe et /ou la libération de toxines conduisant à l’apparition d’une pathologie utérine ou générale rarement mortelle cependant.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9trite</t>
+          <t>Métrite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Espèces touchées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les métrites sont des problèmes récurrents aujourd’hui en élevage, de plus en plus prises en compte par les éleveurs laitiers par leur impacts on les retrouvera chez les bovins. Mais pas seulement, plus généralement, tous les mammifères. Après chaque mise bas en effet, l’utérus se voit surmené et épuisé par la demande en énergie et est donc plus fragile et opportun face à une colonisation bactérienne.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9trite</t>
+          <t>Métrite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Symptômes, causes et conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La métrite chronique ou endométrite, qu'elle soit clinique ou subclinique découle des mêmes causes :
 Un vêlage difficile
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9trite</t>
+          <t>Métrite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Prévention et traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">° La prévention est importante. L'alimentation peut jouer un rôle important dans le développement de cette maladie, on pourra aussi retrouver le milieu, les actions de l’éleveur... La bonne gestion de l'alimentation se gère à tous les stades, un excès ou un déficit azoté pendant la période de tarissement, associé à un déficit énergétique, peuvent être des facteurs favorisant l'apparition de métrite ou d'endométrite. Il faut faire aussi attention à l’équilibre minéral, aux carences en vitamines et oligo-éléments. La prévention des métrites s'opère par une bonne hygiène du vêlage, que ce soit la case de vêlage, les outils utilisés lors de la mise bas, mais aussi la bonne hygiène du manipulateur qu'il soit éleveur ou vétérinaire. L'état des logettes et de l'air d'exercice jouent aussi un rôle dans cette prévention. Il est primordial d'identifier et de prendre en charge le plus tôt possible les problèmes de métrites et d'endométrites. Différents traitements curatifs apparaissent au fil des années. Mais on remarquera qu'aucun traitement local n'est nécessaire pour la vache. On pourra trouver par exemple :
 ° Des traitements anti-infectieux, Les vétérinaires pourront citer alors que : « Le traitement avec des antibiotiques augmente le taux de guérison des vaches atteintes de métrites ou d'endométrites ». Les antibiotiques peuvent être administrés de deux façons, la voie systémique par des injections, mais aussi par la voie intra- utérine. Il faudra cependant faire attention à l'antibio-résistance.
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M%C3%A9trite</t>
+          <t>Métrite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +676,9 @@
           <t>Aspects réglementaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les métrites ne sont pas classées directement dans la réglementation du lait par exemple, elles ne présentent pas de réel danger sanitaire, et de plus elles ne sont pas contagieuses. Le principal impact est financier de par son traitement mais aussi zootechnique puisque la mise à la reproduction est retardée, ce qui implique un intervalle vêlage - vêlage, voire une période improductive du fait d’un tarissement plus long.
  Portail de la médecine   Portail de la médecine vétérinaire                    </t>
